--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,13 +88,7 @@
     <t>Npr2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.065932333333333</v>
+        <v>0.224617</v>
       </c>
       <c r="H2">
-        <v>6.197797</v>
+        <v>0.673851</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.33435</v>
+        <v>13.18988666666667</v>
       </c>
       <c r="N2">
-        <v>40.00304999999999</v>
+        <v>39.56966</v>
       </c>
       <c r="O2">
-        <v>0.5378090458822617</v>
+        <v>0.6665003854349094</v>
       </c>
       <c r="P2">
-        <v>0.5378090458822616</v>
+        <v>0.6665003854349095</v>
       </c>
       <c r="Q2">
-        <v>27.54786480898333</v>
+        <v>2.962672773406666</v>
       </c>
       <c r="R2">
-        <v>247.9307832808499</v>
+        <v>26.66405496066</v>
       </c>
       <c r="S2">
-        <v>0.5378090458822617</v>
+        <v>0.4844923124997428</v>
       </c>
       <c r="T2">
-        <v>0.5378090458822616</v>
+        <v>0.4844923124997429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.065932333333333</v>
+        <v>0.224617</v>
       </c>
       <c r="H3">
-        <v>6.197797</v>
+        <v>0.673851</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>16.570336</v>
       </c>
       <c r="O3">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="P3">
-        <v>0.2227749282644322</v>
+        <v>0.2791061467494529</v>
       </c>
       <c r="Q3">
-        <v>11.41106430553244</v>
+        <v>1.240659720437333</v>
       </c>
       <c r="R3">
-        <v>102.699578749792</v>
+        <v>11.165937483936</v>
       </c>
       <c r="S3">
-        <v>0.2227749282644322</v>
+        <v>0.2028877783518418</v>
       </c>
       <c r="T3">
-        <v>0.2227749282644322</v>
+        <v>0.2028877783518418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.065932333333333</v>
+        <v>0.224617</v>
       </c>
       <c r="H4">
-        <v>6.197797</v>
+        <v>0.673851</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7269197784238318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.878605666666666</v>
+        <v>1.076434</v>
       </c>
       <c r="N4">
-        <v>17.635817</v>
+        <v>3.229302</v>
       </c>
       <c r="O4">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563764</v>
       </c>
       <c r="P4">
-        <v>0.2370994690185916</v>
+        <v>0.05439346781563765</v>
       </c>
       <c r="Q4">
-        <v>12.14480152168322</v>
+        <v>0.241785375778</v>
       </c>
       <c r="R4">
-        <v>109.303213695149</v>
+        <v>2.176068382002</v>
       </c>
       <c r="S4">
-        <v>0.2370994690185916</v>
+        <v>0.03953968757224714</v>
       </c>
       <c r="T4">
-        <v>0.2370994690185916</v>
+        <v>0.03953968757224715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08438133333333332</v>
+      </c>
+      <c r="H5">
+        <v>0.253144</v>
+      </c>
+      <c r="I5">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="J5">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.18988666666667</v>
+      </c>
+      <c r="N5">
+        <v>39.56966</v>
+      </c>
+      <c r="O5">
+        <v>0.6665003854349094</v>
+      </c>
+      <c r="P5">
+        <v>0.6665003854349095</v>
+      </c>
+      <c r="Q5">
+        <v>1.112980223448889</v>
+      </c>
+      <c r="R5">
+        <v>10.01682201104</v>
+      </c>
+      <c r="S5">
+        <v>0.1820080729351665</v>
+      </c>
+      <c r="T5">
+        <v>0.1820080729351665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.08438133333333332</v>
+      </c>
+      <c r="H6">
+        <v>0.253144</v>
+      </c>
+      <c r="I6">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="J6">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.065932333333333</v>
-      </c>
-      <c r="H5">
-        <v>6.197797</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.05743633333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.172309</v>
-      </c>
-      <c r="O5">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="P5">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="Q5">
-        <v>0.1186595781414444</v>
-      </c>
-      <c r="R5">
-        <v>1.067936203273</v>
-      </c>
-      <c r="S5">
-        <v>0.002316556834714519</v>
-      </c>
-      <c r="T5">
-        <v>0.002316556834714519</v>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.523445333333334</v>
+      </c>
+      <c r="N6">
+        <v>16.570336</v>
+      </c>
+      <c r="O6">
+        <v>0.2791061467494529</v>
+      </c>
+      <c r="P6">
+        <v>0.2791061467494529</v>
+      </c>
+      <c r="Q6">
+        <v>0.4660756818204445</v>
+      </c>
+      <c r="R6">
+        <v>4.194681136384</v>
+      </c>
+      <c r="S6">
+        <v>0.07621836839761111</v>
+      </c>
+      <c r="T6">
+        <v>0.07621836839761111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.08438133333333332</v>
+      </c>
+      <c r="H7">
+        <v>0.253144</v>
+      </c>
+      <c r="I7">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="J7">
+        <v>0.2730802215761681</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.076434</v>
+      </c>
+      <c r="N7">
+        <v>3.229302</v>
+      </c>
+      <c r="O7">
+        <v>0.05439346781563764</v>
+      </c>
+      <c r="P7">
+        <v>0.05439346781563765</v>
+      </c>
+      <c r="Q7">
+        <v>0.09083093616533333</v>
+      </c>
+      <c r="R7">
+        <v>0.817478425488</v>
+      </c>
+      <c r="S7">
+        <v>0.0148537802433905</v>
+      </c>
+      <c r="T7">
+        <v>0.0148537802433905</v>
       </c>
     </row>
   </sheetData>
